--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>产品名称</t>
   </si>
@@ -50,82 +50,16 @@
     <t>产品类型</t>
   </si>
   <si>
-    <t>卡诗星品内卖</t>
-  </si>
-  <si>
-    <t>白金洗发水500ml</t>
-  </si>
-  <si>
-    <t>138*1</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>兰蔻塑颜三重紧致焕颜精华乳</t>
-  </si>
-  <si>
-    <t>50ml</t>
-  </si>
-  <si>
-    <t>544*1</t>
-  </si>
-  <si>
-    <t>LD</t>
-  </si>
-  <si>
-    <t>科颜氏夜间修护滋润云朵霜</t>
-  </si>
-  <si>
-    <t>99*2</t>
-  </si>
-  <si>
-    <t>兰蔻净澈焕肤亮白精华液</t>
-  </si>
-  <si>
-    <t>427*1</t>
-  </si>
-  <si>
-    <t>兰蔻全新清滢保湿柔肤水</t>
-  </si>
-  <si>
-    <t>400ml</t>
-  </si>
-  <si>
-    <t>175*1</t>
-  </si>
-  <si>
-    <t>200ml、400ml</t>
-  </si>
-  <si>
-    <t>96*1、175*1</t>
-  </si>
-  <si>
     <t>适乐肤神经酰胺屏障修护润肤乳</t>
   </si>
   <si>
     <t>SAM PDQ 新</t>
   </si>
   <si>
-    <t>兰蔻新菁纯精华粉底液</t>
+    <t>1047*1</t>
   </si>
   <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>396*1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">兰蔻菁纯臻颜焕亮乳霜 </t>
-  </si>
-  <si>
-    <t>轻盈型</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>495*1</t>
+    <t>NLD</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1245,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1348,15 +1282,15 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>0</v>
@@ -1366,46 +1300,22 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="F3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4"/>
@@ -1417,67 +1327,31 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="F8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4"/>
@@ -1489,46 +1363,22 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="F10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5">
-        <v>1047</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="F11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4"/>
@@ -1540,50 +1390,22 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5">
-        <v>130</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="F13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="F14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>产品名称</t>
   </si>
@@ -56,10 +56,52 @@
     <t>SAM PDQ 新</t>
   </si>
   <si>
-    <t>1047*1</t>
+    <t>1047*5</t>
   </si>
   <si>
     <t>NLD</t>
+  </si>
+  <si>
+    <t>兰蔻塑颜三重紧致焕颜精华乳</t>
+  </si>
+  <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>544*2</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>科颜氏夜间修护滋润云朵霜</t>
+  </si>
+  <si>
+    <t>99*5</t>
+  </si>
+  <si>
+    <t>兰蔻净澈焕肤亮白精华液</t>
+  </si>
+  <si>
+    <t>427*1</t>
+  </si>
+  <si>
+    <t>兰蔻全新清滢保湿柔肤水</t>
+  </si>
+  <si>
+    <t>400ml</t>
+  </si>
+  <si>
+    <t>175*2</t>
+  </si>
+  <si>
+    <t>卡诗星品内卖</t>
+  </si>
+  <si>
+    <t>白金洗发水500ml</t>
+  </si>
+  <si>
+    <t>138*3</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1287,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A9" sqref="$A9:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1300,22 +1342,46 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4"/>
@@ -1327,31 +1393,67 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4"/>
